--- a/lastname_Team8_FA_Incident_Investigation_Report.xlsx
+++ b/lastname_Team8_FA_Incident_Investigation_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Downloads\IR720\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE4897D-FD95-4F5A-B469-F39C9D930F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D940C-FE0F-48A3-9A73-B0CC908CF723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27490" yWindow="3000" windowWidth="25390" windowHeight="17170" xr2:uid="{72AC84B7-4884-48F8-AE7A-33F574326D0B}"/>
+    <workbookView xWindow="1050" yWindow="510" windowWidth="22270" windowHeight="13060" xr2:uid="{72AC84B7-4884-48F8-AE7A-33F574326D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Incident Response Checklist" sheetId="1" r:id="rId1"/>
@@ -624,22 +624,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Incident Timeline (Date/Time/Action): </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">March 1: phishing email received in AU; Excel file opened; Flash exploit to Admin access; Poison Ivy Installed. March 2:AD enumeration and mimikatz to crack passwords; Admin account found. March 3-4: scanning to identify internal network; lateral movement to IIS Dev system. March 5-8: used cracked accounts to gain access to Key Vault; data copied over in chunks to staging server; data transfered out. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">If so, what CVE? </t>
     </r>
     <r>
@@ -734,9 +718,6 @@
   </si>
   <si>
     <t>B. Ucher</t>
-  </si>
-  <si>
-    <t>March 8, Press Release</t>
   </si>
   <si>
     <r>
@@ -760,6 +741,25 @@
       </rPr>
       <t xml:space="preserve">Sysadmin reported unexpected login on Key Vault server from AU accounting team. Most of the team is busy dealing with 3 active DDOS attacks so Levenson is new but he said he would take a look. Traffic analysis shows logins from AU system to dev box webserver and from there into Secret Network. </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Incident Timeline (Date/Time/Action): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">March 1: phishing email received in AU; Excel file opened; Flash exploit to Admin access; Poison Ivy Installed. March 2:AD enumeration and mimikatz to crack passwords; Admin account found. March 3-7: scanning to identify internal network; lateral movement to IIS Dev system. March 8: used cracked accounts to gain access to Key Vault; local  sysadmin notifies secuity team. March 9-10: attackers gain access to key valut and move seed data to staging Dev !! server. March 11-12: attackers chunk up files, zip them up, and transfer them out. </t>
+    </r>
+  </si>
+  <si>
+    <t>March 18, Press Release</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1561,336 +1561,335 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3743,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F401D-888F-45AC-BAFD-8850D8EC5137}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3761,16 +3760,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="103">
+      <c r="F1" s="23">
         <v>6421</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -3781,576 +3780,576 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="42" t="s">
         <v>95</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="107">
-        <v>40619</v>
+      <c r="H2" s="25">
+        <v>40632</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="102" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="105"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="108">
+      <c r="H3" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="109">
+      <c r="H4" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="94"/>
-      <c r="B5" s="88" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="109"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="22" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="22" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="24" t="s">
         <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="A9" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="H9" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="43" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="95" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="96"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="41" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="29" t="s">
         <v>121</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="121" t="s">
+      <c r="G15" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="109"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="30" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="30" t="s">
         <v>122</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="121" t="s">
+      <c r="G16" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="30" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="30" t="s">
         <v>123</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="119" t="s">
+      <c r="F17" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="30" t="s">
         <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="30" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="119" t="s">
+      <c r="F18" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="30" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="30" t="s">
         <v>124</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="30" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="30" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="30" t="s">
         <v>117</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="30" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="30" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="119" t="s">
+      <c r="F22" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="30" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="119" t="s">
+      <c r="F23" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="30" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="30" t="s">
         <v>128</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="31" t="s">
         <v>129</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="120" t="s">
+      <c r="F25" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="57"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="84" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="79" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="74"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="73" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="81" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="74"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="80"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="75"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="82"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="82"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="126" t="s">
+      <c r="F33" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="126" t="s">
         <v>87</v>
       </c>
       <c r="H33" s="128" t="s">
@@ -4358,617 +4357,680 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="32"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="127"/>
       <c r="H34" s="129"/>
     </row>
     <row r="35" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="88"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="91"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70" t="s">
+      <c r="D42" s="40"/>
+      <c r="E42" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="39" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="40"/>
+      <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105" t="s">
+      <c r="D44" s="43"/>
+      <c r="E44" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105" t="s">
+      <c r="F44" s="43"/>
+      <c r="G44" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="109"/>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="44"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="44"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="47"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="57"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="70"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="85"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="88"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="88"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="88"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="88"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="85"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="86"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="88"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="86"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="88"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="86"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="88"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="91"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-    </row>
-    <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="59" t="s">
+      <c r="C59" s="102"/>
+      <c r="D59" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="63" t="s">
+      <c r="E59" s="84"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="H59" s="66" t="s">
+      <c r="H59" s="108" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="58"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="67"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="109"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="58"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="67"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="109"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="68"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="110"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="41" t="s">
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="42"/>
+      <c r="H63" s="49"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="102" t="s">
-        <v>159</v>
+      <c r="B64" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="44"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="102" t="s">
-        <v>160</v>
+      <c r="B65" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="132" t="s">
+      <c r="G65" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H65" s="108" t="s">
-        <v>164</v>
+      <c r="H65" s="26" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="130">
+      <c r="B66" s="35">
         <v>44977</v>
       </c>
-      <c r="C66" s="131">
+      <c r="C66" s="36">
         <v>44986</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="132" t="s">
+      <c r="G66" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H66" s="108" t="s">
-        <v>165</v>
+      <c r="H66" s="26" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="130">
+      <c r="B67" s="35">
         <v>44995</v>
       </c>
-      <c r="C67" s="131">
+      <c r="C67" s="36">
         <v>44987</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="132" t="s">
+      <c r="G67" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H67" s="108" t="s">
-        <v>166</v>
+      <c r="H67" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="102" t="s">
-        <v>161</v>
+      <c r="B68" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="132" t="s">
+      <c r="G68" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H68" s="108" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="50"/>
+      <c r="B69" s="120"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="122"/>
       <c r="G69" s="17"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="47"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="51"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="121"/>
+      <c r="C70" s="121"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="123"/>
       <c r="G70" s="17"/>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
+      <c r="A71" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="85"/>
       <c r="G71" s="17"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="88"/>
       <c r="G72" s="17"/>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="28"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="91"/>
       <c r="G73" s="17"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="41" t="s">
+      <c r="A74" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H74" s="42"/>
+      <c r="H74" s="49"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="H76" s="109"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="H76" s="48"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
+      <c r="A77" s="86"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="46"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="44"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="46"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="44"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="46"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="25"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="87"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="46"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="44"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="46"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="28"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="38"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="130"/>
+      <c r="H82" s="131"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
     </row>
     <row r="94" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A83:H84"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A35:H41"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A71:F73"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="A74:F82"/>
+    <mergeCell ref="G74:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G63:H64"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="D59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A48:H53"/>
+    <mergeCell ref="A54:H58"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:G32"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -4985,74 +5047,11 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:G32"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A48:H53"/>
-    <mergeCell ref="A54:H58"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="D59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A83:H84"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A35:H41"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A71:F73"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A74:F82"/>
-    <mergeCell ref="G74:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G63:H64"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{777B97A7-4DC1-4328-83F0-3B47F6AF2A99}">
